--- a/QuantLibXL/Data/XLS/030_CapVolBootstrap/020_MarketMetaData/EUR_040_OptionletStripperAdapter6M.xlsx
+++ b/QuantLibXL/Data/XLS/030_CapVolBootstrap/020_MarketMetaData/EUR_040_OptionletStripperAdapter6M.xlsx
@@ -9,9 +9,6 @@
   <sheets>
     <sheet name="General Settings" sheetId="4" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$14</definedName>
     <definedName name="FileOverwrite">'General Settings'!$D$9</definedName>
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>General Settings</t>
   </si>
@@ -74,6 +71,9 @@
   <si>
     <t>EUR</t>
   </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
+  </si>
 </sst>
 </file>
 
@@ -83,7 +83,7 @@
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -413,22 +413,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -723,7 +707,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.33203125" customWidth="1"/>
     <col min="2" max="2" width="5.1640625" customWidth="1"/>
@@ -737,13 +721,13 @@
     <col min="13" max="14" width="25.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="4" customFormat="1" ht="12.75">
+    <row r="1" spans="1:256" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1" s="5" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="1:256" s="4" customFormat="1" ht="15.75">
+    <row r="2" spans="1:256" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
@@ -751,13 +735,13 @@
       <c r="D2" s="35"/>
       <c r="E2" s="36"/>
     </row>
-    <row r="3" spans="1:256" s="4" customFormat="1">
+    <row r="3" spans="1:256" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:256" s="4" customFormat="1">
+    <row r="4" spans="1:256" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="6"/>
       <c r="C4" s="30" t="s">
         <v>1</v>
@@ -765,7 +749,7 @@
       <c r="D4" s="31"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:256" s="4" customFormat="1">
+    <row r="5" spans="1:256" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6"/>
       <c r="C5" s="30" t="s">
         <v>4</v>
@@ -775,7 +759,7 @@
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:256" s="4" customFormat="1">
+    <row r="6" spans="1:256" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6"/>
       <c r="C6" s="30" t="s">
         <v>7</v>
@@ -785,7 +769,7 @@
       </c>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:256" s="4" customFormat="1">
+    <row r="7" spans="1:256" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6"/>
       <c r="C7" s="30" t="s">
         <v>8</v>
@@ -795,18 +779,17 @@
       </c>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:256" s="4" customFormat="1">
+    <row r="8" spans="1:256" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6"/>
       <c r="C8" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="32" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\030_CapVolBootstrap\020_MarketMetaData\</v>
+      <c r="D8" s="32" t="s">
+        <v>15</v>
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:256" s="4" customFormat="1">
+    <row r="9" spans="1:256" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6"/>
       <c r="C9" s="30" t="s">
         <v>10</v>
@@ -816,14 +799,14 @@
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:256" s="4" customFormat="1">
+    <row r="10" spans="1:256" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="12"/>
     </row>
-    <row r="11" spans="1:256" s="4" customFormat="1"/>
-    <row r="12" spans="1:256" s="1" customFormat="1" ht="15.75">
+    <row r="11" spans="1:256" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:256" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="34" t="s">
         <v>11</v>
@@ -1083,7 +1066,7 @@
       <c r="IU12" s="4"/>
       <c r="IV12" s="4"/>
     </row>
-    <row r="13" spans="1:256" ht="12.75">
+    <row r="13" spans="1:256" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="19"/>
       <c r="C13" s="3"/>
@@ -1341,7 +1324,7 @@
       <c r="IU13" s="4"/>
       <c r="IV13" s="4"/>
     </row>
-    <row r="14" spans="1:256" ht="12.75">
+    <row r="14" spans="1:256" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="19"/>
       <c r="C14" s="21" t="s">
@@ -1603,7 +1586,7 @@
       <c r="IU14" s="4"/>
       <c r="IV14" s="4"/>
     </row>
-    <row r="15" spans="1:256" ht="12.75">
+    <row r="15" spans="1:256" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="19"/>
       <c r="C15" s="21" t="s">
@@ -1866,7 +1849,7 @@
       <c r="IU15" s="4"/>
       <c r="IV15" s="4"/>
     </row>
-    <row r="16" spans="1:256" ht="12.75">
+    <row r="16" spans="1:256" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="19"/>
       <c r="C16" s="23" t="s">
@@ -2129,7 +2112,7 @@
       <c r="IU16" s="4"/>
       <c r="IV16" s="4"/>
     </row>
-    <row r="17" spans="1:256" ht="12.75">
+    <row r="17" spans="1:256" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="19"/>
       <c r="C17" s="23" t="s">
@@ -2392,7 +2375,7 @@
       <c r="IU17" s="4"/>
       <c r="IV17" s="4"/>
     </row>
-    <row r="18" spans="1:256" ht="12.75">
+    <row r="18" spans="1:256" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="19"/>
       <c r="C18" s="26" t="s">
@@ -2655,7 +2638,7 @@
       <c r="IU18" s="4"/>
       <c r="IV18" s="4"/>
     </row>
-    <row r="19" spans="1:256" s="15" customFormat="1">
+    <row r="19" spans="1:256" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="13"/>
       <c r="C19" s="23" t="s">
@@ -2918,7 +2901,7 @@
       <c r="IU19" s="4"/>
       <c r="IV19" s="4"/>
     </row>
-    <row r="20" spans="1:256" s="15" customFormat="1">
+    <row r="20" spans="1:256" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="13"/>
       <c r="C20" s="26" t="s">
@@ -3181,7 +3164,7 @@
       <c r="IU20" s="4"/>
       <c r="IV20" s="4"/>
     </row>
-    <row r="21" spans="1:256" s="15" customFormat="1">
+    <row r="21" spans="1:256" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
@@ -3439,21 +3422,21 @@
       <c r="IU21" s="4"/>
       <c r="IV21" s="4"/>
     </row>
-    <row r="22" spans="1:256" s="4" customFormat="1"/>
-    <row r="23" spans="1:256" s="4" customFormat="1"/>
-    <row r="24" spans="1:256" s="4" customFormat="1"/>
-    <row r="25" spans="1:256" s="4" customFormat="1"/>
-    <row r="26" spans="1:256" s="4" customFormat="1"/>
-    <row r="27" spans="1:256" s="4" customFormat="1"/>
-    <row r="28" spans="1:256" s="4" customFormat="1"/>
-    <row r="29" spans="1:256" s="4" customFormat="1"/>
-    <row r="30" spans="1:256" s="4" customFormat="1"/>
-    <row r="31" spans="1:256" s="4" customFormat="1"/>
-    <row r="32" spans="1:256" s="4" customFormat="1"/>
-    <row r="33" s="4" customFormat="1"/>
-    <row r="34" s="4" customFormat="1"/>
-    <row r="35" s="4" customFormat="1"/>
-    <row r="36" s="4" customFormat="1"/>
+    <row r="22" spans="1:256" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:256" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:256" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:256" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:256" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:256" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:256" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:256" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:256" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:256" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:256" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B12:E12"/>

--- a/QuantLibXL/Data/XLS/030_CapVolBootstrap/020_MarketMetaData/EUR_040_OptionletStripperAdapter6M.xlsx
+++ b/QuantLibXL/Data/XLS/030_CapVolBootstrap/020_MarketMetaData/EUR_040_OptionletStripperAdapter6M.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>General Settings</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>EUR</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -784,8 +781,9 @@
       <c r="C8" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="32" t="s">
-        <v>15</v>
+      <c r="D8" s="32" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\030_CapVolBootstrap\020_MarketMetaData\</v>
       </c>
       <c r="E8" s="9"/>
     </row>
@@ -2381,9 +2379,9 @@
       <c r="C18" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="27" t="str">
+      <c r="D18" s="27" t="e">
         <f ca="1">IF(ISERROR(OptionletStripperAdapter6M),_xll.ohRangeRetrieveError(OptionletStripperAdapter6M),_xll.ohRangeRetrieveError(D17))</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="4"/>
@@ -2908,8 +2906,8 @@
         <v>8</v>
       </c>
       <c r="D20" s="29" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(D16,SerializationPath&amp;D19,FileOverwrite,Serialize),"--")</f>
-        <v>#NUM!</v>
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(D16,SerializationPath&amp;D19,FileOverwrite,Serialize),"--")</f>
+        <v>#NAME?</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="4"/>
